--- a/biology/Zoologie/Chevalier_des_Tuamotu/Chevalier_des_Tuamotu.xlsx
+++ b/biology/Zoologie/Chevalier_des_Tuamotu/Chevalier_des_Tuamotu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prosobonia parvirostris
-Le Chevalier des Tuamotu (Prosobonia parvirostris) est une espèce menacée d'oiseau limicole de la famille des Scolopacidae endémique des îles de l'archipel des Tuamotu en Polynésie française. Il est appelé titi aux Tuamotu, et kivi-kivi à Mangareva[1]. L'une des plus importantes colonies se trouve sur l'atoll Morane.
+Le Chevalier des Tuamotu (Prosobonia parvirostris) est une espèce menacée d'oiseau limicole de la famille des Scolopacidae endémique des îles de l'archipel des Tuamotu en Polynésie française. Il est appelé titi aux Tuamotu, et kivi-kivi à Mangareva. L'une des plus importantes colonies se trouve sur l'atoll Morane.
 Le Chevalier des Tuamotu ne doit pas être confondu avec son parent éteint, le Chevalier de Kiritimati (†Prosobonia cancellata), qui est une espèce distincte d'après la classification de référence du Congrès ornithologique international.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit limicole (15,5 à 16,5 cm de long) à ailes courtes. Son plumage est brun moucheté avec les parties inférieures plus ou moins barrées. Son court bec pointu ressemble davantage à celui d'un passereau insectivore qu'à celui d'un limicole.
 Cet oiseau présente deux phases de coloration et des intermédiaires. Les oiseaux pâles sont brun moyen dessus et blancs dessous avec des barres et des taches claires sur la poitrine et des stries blanchâtres sur la tête.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espèce est recensée aujourd'hui dans plusieurs atolls de la Polynésie, du nord-ouest au sud-est :
 Tahanea, Tuanake, Hiti and Tepoto Sud (Ofiti) dans les Îles Raevski ;
